--- a/DATA_goal/Junction_Flooding_389.xlsx
+++ b/DATA_goal/Junction_Flooding_389.xlsx
@@ -655,103 +655,103 @@
         <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M4" s="4" t="n">
+      <c r="T4" s="4" t="n">
+        <v>32.41</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.37</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.25</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.85</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.4</v>
+        <v>43.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.75</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_389.xlsx
+++ b/DATA_goal/Junction_Flooding_389.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45070.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45070.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.82</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.05</v>
+        <v>8.333</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.02</v>
+        <v>1.629</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.41</v>
+        <v>25.992</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.61</v>
+        <v>20.404</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.82</v>
+        <v>9.326000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.85</v>
+        <v>36.495</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.82</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.87</v>
+        <v>6.187</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.07</v>
+        <v>8.978</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.57</v>
+        <v>10.371</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.08</v>
+        <v>10.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.75</v>
+        <v>3.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.23</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.34</v>
+        <v>13.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.19</v>
+        <v>8.266999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.54</v>
+        <v>1.435</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.892</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.04</v>
+        <v>135.743</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.22</v>
+        <v>26.329</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.54</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.39</v>
+        <v>17.272</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.12</v>
+        <v>9.252000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.875</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.24</v>
+        <v>17.584</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.2</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.86</v>
+        <v>6.954</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.28</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.62</v>
+        <v>10.906</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.06</v>
+        <v>33.585</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.88</v>
+        <v>4.683</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.4</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45070.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.35</v>
+        <v>0.382</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.9</v>
+        <v>0.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.773</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.83</v>
+        <v>0.847</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>7.849</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.74</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.126</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.38</v>
+        <v>0.264</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.47</v>
+        <v>0.161</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.32</v>
+        <v>0.008</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.44</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.92</v>
+        <v>0.595</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.15</v>
+        <v>0.591</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.873</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.338</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.41</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.31</v>
+        <v>1.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.57</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.66</v>
+        <v>0.985</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.37</v>
+        <v>0.546</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.477</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.37</v>
+        <v>3.235</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.13</v>
+        <v>0.293</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.72</v>
+        <v>0.387</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.25</v>
+        <v>0.446</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3</v>
+        <v>0.382</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.715</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.72</v>
+        <v>7.953</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.09</v>
+        <v>0.044</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.81</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45070.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.34</v>
+        <v>0.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.51</v>
+        <v>0.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.85</v>
+        <v>1.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.06</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.88</v>
+        <v>4.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.99</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.24</v>
+        <v>0.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.23</v>
+        <v>0.67</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.16</v>
+        <v>0.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.15</v>
+        <v>0.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.18</v>
+        <v>0.14</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.23</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.99</v>
+        <v>0.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.79</v>
+        <v>0.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.32</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>43.95</v>
+        <v>4.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>2.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.2</v>
+        <v>1.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.18</v>
+        <v>0.71</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.13</v>
+        <v>1.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.75</v>
+        <v>0.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.29</v>
+        <v>0.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.89</v>
+        <v>0.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.91</v>
+        <v>0.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.11</v>
+        <v>4.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.3</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_389.xlsx
+++ b/DATA_goal/Junction_Flooding_389.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45070.50694444445</v>
+        <v>44782.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>15.374</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.112</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.717</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.732</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.126</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.943</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>36.363</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.615</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.558</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.183</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.932</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.607</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.86</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.031</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>16.608</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.57</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.118</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>175.75</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>33.355</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.105</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>21.604</v>
+        <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.537</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.926</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.421</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.874000000000001</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.611</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>13.63</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.312</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>32.661</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.894</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.883</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45070.51388888889</v>
+        <v>44782.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.011</v>
+        <v>1.819</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.333</v>
+        <v>2.049</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.629</v>
+        <v>0.024</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.992</v>
+        <v>3.411</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.404</v>
+        <v>3.614</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.326000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.495</v>
+        <v>3.851</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.543</v>
+        <v>1.821</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.187</v>
+        <v>0.873</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.978</v>
+        <v>1.072</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.371</v>
+        <v>2.572</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.96</v>
+        <v>2.079</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.02</v>
+        <v>0.749</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>1.232</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.16</v>
+        <v>2.335</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.266999999999999</v>
+        <v>1.186</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.435</v>
+        <v>0.536</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.892</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.743</v>
+        <v>15.036</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.329</v>
+        <v>4.215</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.676</v>
+        <v>1.544</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.272</v>
+        <v>2.393</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.252000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.875</v>
+        <v>0.177</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.584</v>
+        <v>2.241</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.663</v>
+        <v>1.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.954</v>
+        <v>0.859</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.218999999999999</v>
+        <v>1.279</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.906</v>
+        <v>1.621</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.246</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.585</v>
+        <v>4.06</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.683</v>
+        <v>1.884</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.847</v>
+        <v>1.399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45070.52083333334</v>
+        <v>44782.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.382</v>
+        <v>3.352</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.17</v>
+        <v>2.898</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.065</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.847</v>
+        <v>6.829</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>6.147</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.187</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>3.736</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.317</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.922</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>32.407</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>7.315</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.656</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>4.367</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>2.134</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>7.849</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.582</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.338</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>3.235</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.293</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.387</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.715</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>7.953</v>
+        <v>7.725</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.044</v>
+        <v>2.089</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.446</v>
+        <v>2.813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45070.52777777778</v>
+        <v>44782.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.88</v>
+        <v>4.343</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.57</v>
+        <v>3.511</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.098</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.96</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.07</v>
+        <v>7.848</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.92</v>
+        <v>3.061</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.56</v>
+        <v>11.881</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>4.985</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.242</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.67</v>
+        <v>3.233</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.64</v>
+        <v>4.155</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.6</v>
+        <v>4.154</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.176</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>3.233</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.92</v>
+        <v>4.992</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.86</v>
+        <v>2.788</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.321</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.039</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.54</v>
+        <v>43.952</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.15</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.13</v>
+        <v>6.197</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.71</v>
+        <v>3.185</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.437</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.79</v>
+        <v>6.131</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.6</v>
+        <v>2.753</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>2.288</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.74</v>
+        <v>2.888</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.85</v>
+        <v>3.913</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.45</v>
+        <v>11.108</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.85</v>
+        <v>3.738</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.11805555555</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>12.93</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_389.xlsx
+++ b/DATA_goal/Junction_Flooding_389.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.09027777778</v>
+        <v>45070.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.861</v>
+        <v>15.374</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.491</v>
+        <v>10.112</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.076</v>
+        <v>3.717</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.32</v>
+        <v>32.732</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.861</v>
+        <v>25.126</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.002</v>
+        <v>11.943</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.492</v>
+        <v>36.363</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.701</v>
+        <v>18.615</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.38</v>
+        <v>7.558</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.367</v>
+        <v>11.183</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.983</v>
+        <v>12.932</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.944</v>
+        <v>13.607</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.138</v>
+        <v>3.86</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.723</v>
+        <v>12.031</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.566</v>
+        <v>16.608</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.64</v>
+        <v>10.57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.961</v>
+        <v>3.118</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.973</v>
+        <v>175.75</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.143</v>
+        <v>33.355</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.999</v>
+        <v>11.105</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.92</v>
+        <v>21.604</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.309</v>
+        <v>11.537</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.926</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.93</v>
+        <v>18.421</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.721</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.494</v>
+        <v>8.874000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>10.611</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.966</v>
+        <v>13.63</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.167</v>
+        <v>3.312</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.71</v>
+        <v>32.661</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.101</v>
+        <v>5.894</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.612</v>
+        <v>13.883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.09722222222</v>
+        <v>45070.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.819</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.049</v>
+        <v>8.333</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.024</v>
+        <v>1.629</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.411</v>
+        <v>25.992</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.614</v>
+        <v>20.404</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.82</v>
+        <v>9.326000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.851</v>
+        <v>36.495</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.821</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.873</v>
+        <v>6.187</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.072</v>
+        <v>8.978</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.572</v>
+        <v>10.371</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.079</v>
+        <v>10.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.749</v>
+        <v>3.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.232</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.335</v>
+        <v>13.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.186</v>
+        <v>8.266999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.536</v>
+        <v>1.435</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.892</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.036</v>
+        <v>135.743</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.215</v>
+        <v>26.329</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.544</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.393</v>
+        <v>17.272</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.125</v>
+        <v>9.252000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.177</v>
+        <v>1.875</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.241</v>
+        <v>17.584</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.196</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.859</v>
+        <v>6.954</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.279</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.621</v>
+        <v>10.906</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.06</v>
+        <v>33.585</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.884</v>
+        <v>4.683</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.399</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.10416666666</v>
+        <v>45070.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.352</v>
+        <v>0.382</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.898</v>
+        <v>0.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.065</v>
+        <v>0.773</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.829</v>
+        <v>0.847</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>6.147</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.187</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.125</v>
+        <v>7.849</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.736</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.689</v>
+        <v>0.126</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.376</v>
+        <v>0.264</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.47</v>
+        <v>0.161</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.317</v>
+        <v>0.008</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0.985</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>2.437</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>3.922</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>2.154</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>32.407</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>7.315</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>2.567</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>4.656</v>
-      </c>
       <c r="X4" s="4" t="n">
-        <v>2.365</v>
+        <v>0.546</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.334</v>
+        <v>0.477</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.367</v>
+        <v>3.235</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.134</v>
+        <v>0.293</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.717</v>
+        <v>0.387</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.25</v>
+        <v>0.446</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.004</v>
+        <v>0.382</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.715</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>7.725</v>
+        <v>7.953</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.089</v>
+        <v>0.044</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.813</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.11111111111</v>
+        <v>45070.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.343</v>
+        <v>0.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.511</v>
+        <v>0.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.098</v>
+        <v>0.58</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.848</v>
+        <v>1.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.061</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.881</v>
+        <v>4.56</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.985</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.242</v>
+        <v>0.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.233</v>
+        <v>0.67</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.155</v>
+        <v>0.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.154</v>
+        <v>0.6</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.176</v>
+        <v>0.14</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.233</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.992</v>
+        <v>0.92</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.788</v>
+        <v>0.86</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.321</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.039</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>43.952</v>
+        <v>4.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>2.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.197</v>
+        <v>1.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.185</v>
+        <v>0.71</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.437</v>
+        <v>0.42</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.131</v>
+        <v>1.79</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.753</v>
+        <v>0.6</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.288</v>
+        <v>0.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.888</v>
+        <v>0.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.913</v>
+        <v>0.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.108</v>
+        <v>4.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.3</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.738</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
